--- a/OAシステム画面一覧.xlsx
+++ b/OAシステム画面一覧.xlsx
@@ -8,12 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ForestOASystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCF0FB0-05D5-4A9E-966D-311B68FD0C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1892A76-1D96-44FD-B65D-54FBFF0CDFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="画面一覧" sheetId="1" r:id="rId1"/>
+    <sheet name="ログイン" sheetId="7" r:id="rId2"/>
+    <sheet name="社員マスター" sheetId="2" r:id="rId3"/>
+    <sheet name="取引マスター" sheetId="3" r:id="rId4"/>
+    <sheet name="受注" sheetId="4" r:id="rId5"/>
+    <sheet name="発注" sheetId="5" r:id="rId6"/>
+    <sheet name="稼働明細" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,8 +121,61 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
+    <t>受注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>発注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受注一覧画面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受注登録画面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>発注一覧画面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>発注登録画面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receive_order_list.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receive_order_regist.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>send_order_list.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>send_order_regist.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>■画面一覧_20210624時点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※カレンダーレイアウト、全画面が同じ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic"/>
@@ -127,164 +186,287 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>稼働明細一覧画面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>稼働明細詳細画面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>発注一覧画面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>発注登録画面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>受注一覧画面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>受注登録画面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>取引マスター画面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>取引マスター</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>登録</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>画面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>社員マスター画面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>社員マスター登録画面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>ログイン画面</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>■イメージ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>■画面一覧_20210616時点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>社員マスター画面</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>社員マスター登録画面</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>取引マスター画面</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>取引マスター登録画面</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>稼働明細一覧画面</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>稼働明細詳細画面</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>カレンダーを開いた時</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -292,7 +474,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,13 +488,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -351,6 +526,31 @@
       <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -392,22 +592,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -426,23 +630,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>136018</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>144171</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>524637</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>3198</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22538473-A3A3-43F9-9F2E-36CAAB1056F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE44CBF9-462C-4E02-95AD-0BBD780B58D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -458,8 +662,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="251461" y="2415540"/>
-          <a:ext cx="9142857" cy="4876191"/>
+          <a:off x="160020" y="243840"/>
+          <a:ext cx="9142857" cy="4895238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -468,17 +672,306 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>107446</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>608457</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>158456</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84864FF4-61DE-4D56-B0C7-FC19D39561B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="237067" y="228600"/>
+          <a:ext cx="9142857" cy="4959056"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>608457</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>125480</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="3" name="组合 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E956987-34AD-475D-8D0E-95A8B17DEB95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="236220" y="5364480"/>
+          <a:ext cx="9142857" cy="6610100"/>
+          <a:chOff x="9867901" y="8252460"/>
+          <a:chExt cx="9142857" cy="6610100"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="图片 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E4DFE72-160E-4EF3-99FA-788C17594BD6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9867901" y="8252460"/>
+            <a:ext cx="9138095" cy="4619048"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="图片 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7320A170-EC3F-425C-9560-2D14533FFF4E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9867901" y="12862560"/>
+            <a:ext cx="9142857" cy="2000000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>584648</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>7006</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80963F66-E47A-4E4A-BA69-0CB1957965A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="236220" y="228600"/>
+          <a:ext cx="9119048" cy="4914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>594172</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>112158</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="3" name="组合 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C3AABF5-6462-408E-B63A-6921CF5368A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="236220" y="5364480"/>
+          <a:ext cx="9128572" cy="6772038"/>
+          <a:chOff x="251460" y="25938480"/>
+          <a:chExt cx="9128572" cy="6772038"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="图片 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC1AD993-AD0D-4A1D-BD68-8A8513107195}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="251460" y="25938480"/>
+            <a:ext cx="9123810" cy="4880953"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="图片 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01117A29-7E43-4FBC-BF99-FA77F03D0625}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="251460" y="30815280"/>
+            <a:ext cx="9128572" cy="1895238"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>603696</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>163218</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -486,7 +979,113 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8620D15A-E1C3-4062-B0F5-FB08459B0D9E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEA09E08-6107-4C5E-9198-1BF80959C9C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="274321" y="228600"/>
+          <a:ext cx="9138095" cy="4895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E60009A-E4E6-4F92-B65E-55452BF54668}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6355080" y="1363980"/>
+          <a:ext cx="281940" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>491131</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>126449</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{130F64CF-B0B3-4AB2-9FBB-0DCFBA3DAE58}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -502,8 +1101,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="251460" y="7673340"/>
-          <a:ext cx="9114286" cy="4895238"/>
+          <a:off x="10081260" y="762000"/>
+          <a:ext cx="2876191" cy="1871429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -512,25 +1111,274 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>67035</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="连接符: 肘形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3FC78B3-1FB5-4C01-9FC7-328A6C4DDCF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6637020" y="1485900"/>
+          <a:ext cx="3444240" cy="211815"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>608458</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>69440</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="21" name="组合 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75A857C4-4E12-43AB-970A-7074708E5BD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="274320" y="5364480"/>
+          <a:ext cx="9142858" cy="5502500"/>
+          <a:chOff x="274320" y="5364480"/>
+          <a:chExt cx="9142858" cy="5502500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="12" name="图片 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A532B5B-4E6A-4200-8A7E-049FAFD5F8C5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="274321" y="10119361"/>
+            <a:ext cx="9142857" cy="747619"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="19" name="图片 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DBC2248-94F2-4519-93A9-6A834A6AD67F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="274320" y="5364480"/>
+            <a:ext cx="9142857" cy="4757143"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>603696</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>119907</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="组合 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52632667-4BB8-40BA-BF25-FEFC248C8880}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="228601" y="5364480"/>
+          <a:ext cx="9145715" cy="5728227"/>
+          <a:chOff x="228601" y="5364480"/>
+          <a:chExt cx="9145715" cy="5728227"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="图片 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50D09397-E6CF-475B-8473-6500DCD5C23E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="236221" y="5364480"/>
+            <a:ext cx="9138095" cy="4871429"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="图片 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C76D806-63EC-407C-8960-1C2F4C542D6E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="228601" y="10226040"/>
+            <a:ext cx="9142857" cy="866667"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>126494</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>172742</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>598934</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>2244</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3">
+        <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D097DAC-C4F7-4472-93CA-E99221D1D408}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5E3526E-98D7-4A6B-99A6-93192AA3CFC8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -546,8 +1394,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="251461" y="17838420"/>
-          <a:ext cx="9133333" cy="4904762"/>
+          <a:off x="236221" y="228600"/>
+          <a:ext cx="9133333" cy="4909524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -556,25 +1404,30 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>136018</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>167980</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>594172</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>163218</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4">
+        <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8F4BD0E-B7BC-43DA-8539-7D7CB19C512B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51E4A123-401A-4AD9-A13F-1C935003FEC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -583,15 +1436,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="251461" y="27828240"/>
-          <a:ext cx="9142857" cy="4900000"/>
+          <a:off x="320040" y="228600"/>
+          <a:ext cx="9128572" cy="4895238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -600,180 +1453,97 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>136018</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>158456</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>608458</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>154964</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="组合 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{792E807A-16AE-4E4B-8922-73FA6B6D34B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B620355-4A3C-4C57-B862-B6224B096ABA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="251461" y="37818060"/>
-          <a:ext cx="9142857" cy="4890476"/>
+          <a:off x="205741" y="5364480"/>
+          <a:ext cx="9142857" cy="7165364"/>
+          <a:chOff x="205741" y="5364480"/>
+          <a:chExt cx="9142857" cy="7165364"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>192</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>136018</xdr:colOff>
-      <xdr:row>219</xdr:row>
-      <xdr:rowOff>167980</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{107E0C94-364E-4023-AF64-81177516A29D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="251461" y="34282380"/>
-          <a:ext cx="9142857" cy="4900000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>136018</xdr:colOff>
-      <xdr:row>190</xdr:row>
-      <xdr:rowOff>2244</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="图片 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28C62B70-A53C-4EF4-8ACA-8547E23FD267}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="251461" y="28971240"/>
-          <a:ext cx="9142857" cy="4909524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>608458</xdr:colOff>
-      <xdr:row>189</xdr:row>
-      <xdr:rowOff>172742</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="图片 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FC73858-674C-42BA-BA71-7DAD1F6D07DD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9867901" y="28971240"/>
-          <a:ext cx="9142857" cy="4904762"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="图片 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C291173-04ED-485A-AED5-567EADE41910}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="205741" y="5364480"/>
+            <a:ext cx="9142857" cy="4900000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="图片 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC2C7E23-3B1F-4697-B0A8-1107F9E43C0B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="205741" y="10172701"/>
+            <a:ext cx="9142857" cy="2357143"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1042,26 +1812,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N192"/>
+  <dimension ref="A1:F185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.6640625" customWidth="1"/>
     <col min="2" max="2" width="6.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1"/>
     <col min="5" max="5" width="25.109375" customWidth="1"/>
+    <col min="6" max="6" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1074,12 +1847,15 @@
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -1088,12 +1864,13 @@
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -1102,8 +1879,9 @@
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5">
         <v>3</v>
       </c>
@@ -1114,12 +1892,13 @@
       <c r="E5" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -1128,8 +1907,9 @@
       <c r="E6" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
         <v>5</v>
       </c>
@@ -1140,74 +1920,287 @@
       <c r="E7" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>8</v>
+      <c r="C8" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>7</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="5">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="5">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
         <v>11</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B12" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" ht="18" x14ac:dyDescent="0.45">
-      <c r="B42" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2" ht="18" x14ac:dyDescent="0.45">
-      <c r="B72" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2" ht="18" x14ac:dyDescent="0.45">
-      <c r="B102" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="132" spans="2:2" ht="18" x14ac:dyDescent="0.45">
-      <c r="B132" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="162" spans="2:14" ht="18" x14ac:dyDescent="0.45">
-      <c r="B162" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N162" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="192" spans="2:2" ht="18" x14ac:dyDescent="0.45">
-      <c r="B192" s="7" t="s">
-        <v>30</v>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="6"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="6"/>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="6"/>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B155" s="6"/>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B185" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C3" location="ログイン!A1" display="ログイン" xr:uid="{032E49CD-219A-4F29-B753-6DBCC2AD75C5}"/>
+    <hyperlink ref="C4" location="社員マスター!A1" display="社員マスター" xr:uid="{D6697584-EAF3-4734-86F9-2ED5125D0B9F}"/>
+    <hyperlink ref="C6" location="取引マスター!A1" display="取引マスター" xr:uid="{A13CBD86-84A2-4BBB-BDBD-30B2204E6D30}"/>
+    <hyperlink ref="C8" location="受注!A1" display="受注" xr:uid="{0F833457-7177-496F-AD24-E8DADFD520C5}"/>
+    <hyperlink ref="C10" location="発注!A1" display="発注" xr:uid="{3CF81733-19DA-42DF-9E0F-84FE3CAE4967}"/>
+    <hyperlink ref="C12" location="稼働明細!A1" display="稼働明細" xr:uid="{49EF88A2-B83A-45B4-8C3D-1F54F8721897}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB32F28-D54D-41D3-BCDB-894FB58B1823}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91266F26-49E1-4D7D-91E1-7597D25C61B1}">
+  <dimension ref="A1:A30"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A30" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0267DB25-599A-4E4F-9835-B28E4705AD1A}">
+  <dimension ref="A1:A30"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A30" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{493FEE83-1FE5-4D6E-A77B-1CCC6D0EC190}">
+  <dimension ref="A1:R30"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="17" max="17" width="4.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="18" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A30" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FDE1C5-730E-470C-9AA4-64F918502AB6}">
+  <dimension ref="A1:A30"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A30" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0EA5E9-FD53-43E3-BD4D-4736270CBEFE}">
+  <dimension ref="A1:A30"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="18" x14ac:dyDescent="0.45">
+      <c r="A30" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/OAシステム画面一覧.xlsx
+++ b/OAシステム画面一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ForestOASystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1892A76-1D96-44FD-B65D-54FBFF0CDFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA75198D-2D22-4DEB-9247-1C3C3D7832B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,8 +18,9 @@
     <sheet name="社員マスター" sheetId="2" r:id="rId3"/>
     <sheet name="取引マスター" sheetId="3" r:id="rId4"/>
     <sheet name="受注" sheetId="4" r:id="rId5"/>
-    <sheet name="発注" sheetId="5" r:id="rId6"/>
-    <sheet name="稼働明細" sheetId="6" r:id="rId7"/>
+    <sheet name="BP受注" sheetId="5" r:id="rId6"/>
+    <sheet name="請求" sheetId="6" r:id="rId7"/>
+    <sheet name="BP請求" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>稼働明細</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>社員マスター登録画面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -77,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>稼働明細詳細画面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>login.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -93,10 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>稼働明細一覧画面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>employee_master.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,22 +102,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>operation_list.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>operation_detail.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>受注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>発注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>受注一覧画面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -137,14 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>発注一覧画面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>発注登録画面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>receive_order_list.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -153,14 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>send_order_list.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>send_order_regist.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>■画面一覧_20210624時点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -193,7 +154,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>稼働明細一覧画面</t>
+      <t>受注一覧画面</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -218,7 +179,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>稼働明細詳細画面</t>
+      <t>受注登録画面</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,7 +204,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>発注一覧画面</t>
+      <t>取引マスター画面</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -268,11 +229,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>発注登録画面</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>取引マスター</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -282,6 +240,31 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
+      <t>登録</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>画面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
       <t>・</t>
     </r>
     <r>
@@ -293,6 +276,79 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>社員マスター画面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>社員マスター登録画面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ログイン画面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>BP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>受注一覧画面</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,6 +356,100 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>BP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>受注登録画面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>receive_order_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>bp_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>list.html</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>receive_order_bp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>regist.html</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※社員登録ダイアログ、全画面が同じ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BP受注</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <b/>
         <sz val="11"/>
         <color theme="1"/>
@@ -314,10 +464,55 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>BP</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>受注一覧画面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>BP</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>受注登録画面</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -339,12 +534,47 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>請求</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>取引マスター画面</t>
-    </r>
+      <t>明細一覧画面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP請求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請求明細一覧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP請求明細一覧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>charge_list.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>charge_bp_list.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -364,108 +594,32 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>BP</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>請求</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>取引マスター</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>登録</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>画面</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>社員マスター画面</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>社員マスター登録画面</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ログイン画面</t>
+      <t>明細一覧画面</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -474,7 +628,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,6 +707,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -596,7 +789,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -606,8 +799,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -963,23 +1157,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>603696</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>163218</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>15052</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>6056</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
+        <xdr:cNvPr id="17" name="图片 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEA09E08-6107-4C5E-9198-1BF80959C9C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30417C53-A58A-4A21-A608-035AE3FE9F7B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -995,8 +1189,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="274321" y="228600"/>
-          <a:ext cx="9138095" cy="4895238"/>
+          <a:off x="9730740" y="5387340"/>
+          <a:ext cx="9128572" cy="4890476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>584648</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>172742</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F038AF6-3C29-4DE7-8FC7-8EFF7B88264B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="274320" y="228600"/>
+          <a:ext cx="9119048" cy="4904762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1007,14 +1245,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -1031,14 +1269,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6355080" y="1363980"/>
+          <a:off x="3924300" y="1363980"/>
           <a:ext cx="281940" cy="243840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="19050"/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1070,15 +1312,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>491131</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>126449</xdr:rowOff>
+      <xdr:colOff>437791</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>73109</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1094,14 +1336,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10081260" y="762000"/>
+          <a:off x="9700260" y="358140"/>
           <a:ext cx="2876191" cy="1871429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1113,16 +1355,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>13695</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>67035</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1139,9 +1381,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6637020" y="1485900"/>
-          <a:ext cx="3444240" cy="211815"/>
+        <a:xfrm flipV="1">
+          <a:off x="4206240" y="1293855"/>
+          <a:ext cx="5494020" cy="192045"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1149,6 +1391,9 @@
           </a:avLst>
         </a:prstGeom>
         <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -1172,22 +1417,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>608458</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>69440</xdr:rowOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>58821</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="21" name="组合 20">
+        <xdr:cNvPr id="11" name="组合 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75A857C4-4E12-43AB-970A-7074708E5BD9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59DC5BAF-BA44-43F8-B4FB-340124EB8198}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1195,18 +1440,448 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="274320" y="5364480"/>
-          <a:ext cx="9142858" cy="5502500"/>
-          <a:chOff x="274320" y="5364480"/>
-          <a:chExt cx="9142858" cy="5502500"/>
+          <a:off x="274321" y="5417820"/>
+          <a:ext cx="9142857" cy="6665361"/>
+          <a:chOff x="0" y="5417820"/>
+          <a:chExt cx="18285714" cy="13330721"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="12" name="图片 11">
+          <xdr:cNvPr id="9" name="图片 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A532B5B-4E6A-4200-8A7E-049FAFD5F8C5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D403F32-154D-44E0-8412-84D869CB56A4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="5417820"/>
+            <a:ext cx="18285714" cy="9628571"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="10" name="图片 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15227EA4-E030-466D-86B8-4F1ECD08FA97}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="14996160"/>
+            <a:ext cx="18257143" cy="3752381"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="矩形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{139C6E8D-2318-4F97-A176-6C32D1195419}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4099560" y="7353300"/>
+          <a:ext cx="281940" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="连接符: 肘形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{296989DB-4015-4C6B-AE00-B3255D89C086}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4381500" y="7246620"/>
+          <a:ext cx="8061960" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="矩形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D00E4A79-78DC-42F6-8067-32C911CE778D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12496800" y="8191500"/>
+          <a:ext cx="327660" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="对话气泡: 矩形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD601487-2AA0-4FB5-9C2D-E154404DBEAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11056620" y="8823960"/>
+          <a:ext cx="1760220" cy="830580"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 34145"/>
+            <a:gd name="adj2" fmla="val -84289"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>押下すると、社員登録画面へ遷移</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>608458</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>139409</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38586B4D-8B26-4863-BE14-FAD63214F601}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="236221" y="228600"/>
+          <a:ext cx="9142857" cy="4871429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>30481</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>555120</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>165506</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="组合 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88520EF0-1508-4D2B-9A24-9B26CCEC14B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="182880" y="5394961"/>
+          <a:ext cx="9142860" cy="6619645"/>
+          <a:chOff x="76200" y="5379721"/>
+          <a:chExt cx="9142860" cy="6619645"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="7" name="图片 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D18A1EF9-8365-4CD7-AB57-8BB2EFB3E19B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="95250" y="5379721"/>
+            <a:ext cx="9123810" cy="4795238"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="8" name="图片 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81016F42-BED9-4463-96BF-7CAE11B57301}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1222,37 +1897,8 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="274321" y="10119361"/>
-            <a:ext cx="9142857" cy="747619"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="19" name="图片 18">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DBC2248-94F2-4519-93A9-6A834A6AD67F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="274320" y="5364480"/>
-            <a:ext cx="9142857" cy="4757143"/>
+            <a:off x="76200" y="10161271"/>
+            <a:ext cx="9142857" cy="1838095"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1262,123 +1908,91 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>603696</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>119907</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="5" name="组合 4">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="矩形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52632667-4BB8-40BA-BF25-FEFC248C8880}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{864958C3-958B-485D-B468-EF4B1A57679B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="228601" y="5364480"/>
-          <a:ext cx="9145715" cy="5728227"/>
-          <a:chOff x="228601" y="5364480"/>
-          <a:chExt cx="9145715" cy="5728227"/>
+          <a:off x="5090160" y="11414760"/>
+          <a:ext cx="381000" cy="220980"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="图片 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50D09397-E6CF-475B-8473-6500DCD5C23E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="236221" y="5364480"/>
-            <a:ext cx="9138095" cy="4871429"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="4" name="图片 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C76D806-63EC-407C-8960-1C2F4C542D6E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="228601" y="10226040"/>
-            <a:ext cx="9142857" cy="866667"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>556261</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>598934</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>2244</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>555118</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>167985</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5">
+        <xdr:cNvPr id="12" name="图片 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5E3526E-98D7-4A6B-99A6-93192AA3CFC8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20857179-FE85-4671-8226-70470EA73AD9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1387,21 +2001,81 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="236221" y="228600"/>
-          <a:ext cx="9133333" cy="4909524"/>
+          <a:off x="9936481" y="5402580"/>
+          <a:ext cx="9142857" cy="4861905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="箭头: 右 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{335C45F9-31A4-48DB-8B30-8FFD708B5D12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9464040" y="7978140"/>
+          <a:ext cx="350520" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1418,16 +2092,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>594172</xdr:colOff>
+      <xdr:colOff>565600</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>163218</xdr:rowOff>
+      <xdr:rowOff>139409</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
+        <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51E4A123-401A-4AD9-A13F-1C935003FEC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8356F12A-3041-48EE-A264-BC97CAE7BC95}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1443,8 +2117,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="320040" y="228600"/>
-          <a:ext cx="9128572" cy="4895238"/>
+          <a:off x="205740" y="228600"/>
+          <a:ext cx="9100000" cy="4871429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1453,97 +2127,53 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>608458</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>154964</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>167980</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="5" name="组合 4">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B620355-4A3C-4C57-B862-B6224B096ABA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E644C56-5F9E-4BF6-9816-1B2099A9D45C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="205741" y="5364480"/>
-          <a:ext cx="9142857" cy="7165364"/>
-          <a:chOff x="205741" y="5364480"/>
-          <a:chExt cx="9142857" cy="7165364"/>
+          <a:off x="236221" y="228600"/>
+          <a:ext cx="9142857" cy="4900000"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="图片 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C291173-04ED-485A-AED5-567EADE41910}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="205741" y="5364480"/>
-            <a:ext cx="9142857" cy="4900000"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="4" name="图片 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC2C7E23-3B1F-4697-B0A8-1107F9E43C0B}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="205741" y="10172701"/>
-            <a:ext cx="9142857" cy="2357143"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1815,7 +2445,7 @@
   <dimension ref="A1:F185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1830,7 +2460,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B1" s="3"/>
     </row>
@@ -1848,7 +2478,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1862,7 +2492,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3" s="5"/>
     </row>
@@ -1874,10 +2504,10 @@
         <v>6</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="F4" s="5"/>
     </row>
@@ -1887,10 +2517,10 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F5" s="5"/>
     </row>
@@ -1902,10 +2532,10 @@
         <v>7</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -1915,10 +2545,10 @@
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F7" s="5"/>
     </row>
@@ -1927,13 +2557,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F8" s="5"/>
     </row>
@@ -1943,38 +2573,38 @@
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="5">
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>26</v>
+        <v>37</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="5">
         <v>9</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="5" t="s">
-        <v>27</v>
+      <c r="D11" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F11" s="5"/>
     </row>
@@ -1983,13 +2613,13 @@
         <v>10</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F12" s="5"/>
     </row>
@@ -1997,12 +2627,14 @@
       <c r="B13" s="5">
         <v>11</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="D13" s="5" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="F13" s="5"/>
     </row>
@@ -2028,10 +2660,12 @@
     <hyperlink ref="C4" location="社員マスター!A1" display="社員マスター" xr:uid="{D6697584-EAF3-4734-86F9-2ED5125D0B9F}"/>
     <hyperlink ref="C6" location="取引マスター!A1" display="取引マスター" xr:uid="{A13CBD86-84A2-4BBB-BDBD-30B2204E6D30}"/>
     <hyperlink ref="C8" location="受注!A1" display="受注" xr:uid="{0F833457-7177-496F-AD24-E8DADFD520C5}"/>
-    <hyperlink ref="C10" location="発注!A1" display="発注" xr:uid="{3CF81733-19DA-42DF-9E0F-84FE3CAE4967}"/>
-    <hyperlink ref="C12" location="稼働明細!A1" display="稼働明細" xr:uid="{49EF88A2-B83A-45B4-8C3D-1F54F8721897}"/>
+    <hyperlink ref="C12" location="請求!A1" display="請求" xr:uid="{3CF81733-19DA-42DF-9E0F-84FE3CAE4967}"/>
+    <hyperlink ref="C13" location="BP請求!A1" display="BP請求" xr:uid="{49EF88A2-B83A-45B4-8C3D-1F54F8721897}"/>
+    <hyperlink ref="C10" location="BP受注!A1" display="BP受注" xr:uid="{6567CD61-25E3-48F9-93E7-40C9607BE75E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2048,7 +2682,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2070,13 +2704,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
-        <v>43</v>
+      <c r="A1" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="18" x14ac:dyDescent="0.45">
       <c r="A30" s="8" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2090,9 +2724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0267DB25-599A-4E4F-9835-B28E4705AD1A}">
   <dimension ref="A1:A30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2101,12 +2733,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="18" x14ac:dyDescent="0.45">
       <c r="A30" s="8" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2120,9 +2752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{493FEE83-1FE5-4D6E-A77B-1CCC6D0EC190}">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2132,17 +2762,20 @@
   <sheetData>
     <row r="1" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="R4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="18" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A30" s="8" t="s">
-        <v>40</v>
+        <v>26</v>
+      </c>
+      <c r="R30" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2165,12 +2798,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="18" x14ac:dyDescent="0.45">
-      <c r="A30" s="9" t="s">
-        <v>38</v>
+      <c r="A30" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2182,26 +2815,47 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0EA5E9-FD53-43E3-BD4D-4736270CBEFE}">
-  <dimension ref="A1:A30"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="18" x14ac:dyDescent="0.45">
-      <c r="A30" s="8" t="s">
-        <v>36</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B1" s="11"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E543493-F88E-49A3-8BA9-CDB5DF255CA7}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
